--- a/biology/Zoologie/Clanis_titan/Clanis_titan.xlsx
+++ b/biology/Zoologie/Clanis_titan/Clanis_titan.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'espèce Clanis titan  regroupe des insectes lépidoptères de la famille des Sphingidae, sous-famille des Sphinginae, de la tribu des Sphingini et du genre Clanis.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'envergure du papillon varie de 128 à 148 mm.
 			Avers de la femelle (coll.MHNT)
@@ -544,7 +558,9 @@
           <t>Réparation et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Répartition
 L'espèce est connue en Inde et au Népal, à l'est et au sud à travers la Birmanie et le sud-ouest de la Chine (Yunnan) jusqu'en Thaïlande, au Vietnam et en Malaisie péninsulaire.
@@ -577,7 +593,9 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les chenilles ont été observées se nourrissant de Pterocarpus marsupium en Inde et de Dalbergia oliveri au Laos et en Thaïlande.
 </t>
@@ -608,9 +626,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>L'espèce a été décrite par les entomologistes britanniques Lionel Walter Rothschild et Heinrich Ernst Karl Jordan, en 1903[1].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>L'espèce a été décrite par les entomologistes britanniques Lionel Walter Rothschild et Heinrich Ernst Karl Jordan, en 1903.
 La localité type est la région de Khasia Hills, au Nord de l'Inde.</t>
         </is>
       </c>
